--- a/biology/Histoire de la zoologie et de la botanique/José_Antonio_Alzate/José_Antonio_Alzate.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/José_Antonio_Alzate/José_Antonio_Alzate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Antonio_Alzate</t>
+          <t>José_Antonio_Alzate</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">José Antonio Alzate y Ramírez Santillana (novembre 1737 - 2 février 1799), est un scientifique, journaliste et théologien mexicain, qui publie de nombreux articles en médecine, en botanique et en zoologie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Antonio_Alzate</t>
+          <t>José_Antonio_Alzate</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire de la municipalité d'Ozumba, dans l'État de Mexico, il étudie dans l'ancien Colegio de San Ildefonso et est diplômé de théologie en 1756. Il est prêtre pendant quelques années tout en s'intéressant en parallèle aux matières scientifiques.
 Il se lance ensuite dans plusieurs expéditions à travers tout le pays et se consacre véritablement à la science. De 1768 à 1772, il publie ses propres recherches dans l'hebdomadaire Diario literario de México (Journal littéraire  du Mexique) qui change ensuite de nom en Asuntos varios sobre ciencias y artes, contenant des informations sur les nouveautés scientifiques et littéraires.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Antonio_Alzate</t>
+          <t>José_Antonio_Alzate</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En son honneur, est fondé en 1884 la Sociedad Científica Antonio Alzate (es) qui changea de nom en 1930, devenant l'Academia Nacional de Ciencias.
 Une plante dicotylédone d'Amérique centrale a été nommée Alzatea (en) en son honneur. Ce nom est devenu le genre type  de la petite famille des Alzateaceae.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Antonio_Alzate</t>
+          <t>José_Antonio_Alzate</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Vicente Cervantes</t>
         </is>
